--- a/label/雷达图书分析总表（A）-汇总.xlsx
+++ b/label/雷达图书分析总表（A）-汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="465" windowWidth="13290" windowHeight="6660" tabRatio="567" activeTab="1"/>
+    <workbookView xWindow="915" yWindow="465" windowWidth="13290" windowHeight="6660" tabRatio="567" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="图书信息表" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">分类法明细表!$A$1:$M$593</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">实例清单表!$A$1:$I$1418</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">实例统计表!$A$1:$F$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">实例清单表!$A$1:$I$1425</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">实例统计表!$A$1:$F$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">受控术语明细表!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">图书信息表!$A$1:$H$1</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13135" uniqueCount="3471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13177" uniqueCount="3490">
   <si>
     <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14079,6 +14079,121 @@
   </si>
   <si>
     <t>红外高光谱成像原理及数据处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K1-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽带相控阵雷达系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽带相控阵天线系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相控阵基本原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字单波束形成原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字多波束形成原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应数字波束形成原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天基合成孔径雷达原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -14839,7 +14954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15665,11 +15780,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -16583,360 +16698,358 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>809</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="D46" s="29">
-        <v>4</v>
-      </c>
-      <c r="E46" s="29">
+      <c r="A46" s="12"/>
+      <c r="B46" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D46" s="12">
         <v>2</v>
       </c>
-      <c r="F46" s="29">
+      <c r="E46" s="33">
         <v>2</v>
+      </c>
+      <c r="F46" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>809</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D47" s="29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E47" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F47" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>836</v>
+      <c r="C48" s="23" t="s">
+        <v>834</v>
       </c>
       <c r="D48" s="29">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E48" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" s="29">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>847</v>
+      <c r="C49" s="12" t="s">
+        <v>836</v>
       </c>
       <c r="D49" s="29">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E49" s="29">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F49" s="29">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>837</v>
+      <c r="C50" s="23" t="s">
+        <v>847</v>
       </c>
       <c r="D50" s="29">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E50" s="29">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F50" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>809</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D51" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="29">
+        <v>2</v>
+      </c>
+      <c r="F51" s="29">
         <v>0</v>
-      </c>
-      <c r="F51" s="29">
-        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>844</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>833</v>
-      </c>
-      <c r="D52" s="12">
-        <v>2</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1</v>
-      </c>
-      <c r="F52" s="23">
-        <v>1</v>
+        <v>809</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="D52" s="29">
+        <v>5</v>
+      </c>
+      <c r="E52" s="29">
+        <v>0</v>
+      </c>
+      <c r="F52" s="29">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D53" s="12">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E53" s="23">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F53" s="23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D54" s="12">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E54" s="23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F54" s="23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="D55" s="12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E55" s="23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F55" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D56" s="12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E56" s="23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D57" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D58" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="23">
+        <v>1</v>
+      </c>
+      <c r="F58" s="23">
         <v>0</v>
-      </c>
-      <c r="F58" s="23">
-        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>844</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D59" s="12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F59" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="12">
-        <v>59</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D60" s="29">
-        <v>34</v>
-      </c>
-      <c r="E60" s="29">
-        <v>34</v>
-      </c>
-      <c r="F60" s="29">
+        <v>58</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="D60" s="12">
+        <v>6</v>
+      </c>
+      <c r="E60" s="23">
+        <v>6</v>
+      </c>
+      <c r="F60" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>1047</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>452</v>
+        <v>414</v>
       </c>
       <c r="D61" s="29">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E61" s="29">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F61" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>441</v>
+        <v>1047</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="D62" s="29">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E62" s="29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F62" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D63" s="29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E63" s="29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F63" s="29">
         <v>0</v>
@@ -16944,19 +17057,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>843</v>
+        <v>418</v>
       </c>
       <c r="D64" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64" s="29">
         <v>0</v>
@@ -16964,19 +17077,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>843</v>
       </c>
       <c r="D65" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E65" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F65" s="29">
         <v>0</v>
@@ -16984,159 +17097,159 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>1110</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>418</v>
+        <v>843</v>
       </c>
       <c r="D66" s="29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D67" s="29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E67" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F67" s="29">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>1111</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="D68" s="29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E68" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>1111</v>
       </c>
-      <c r="C69" s="29" t="s">
-        <v>441</v>
+      <c r="C69" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="D69" s="29">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E69" s="29">
         <v>0</v>
       </c>
       <c r="F69" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="12">
+        <v>68</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D70" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="40" customFormat="1">
-      <c r="A70" s="12">
-        <v>69</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D70" s="74">
-        <v>96</v>
-      </c>
-      <c r="E70" s="33">
-        <v>36</v>
-      </c>
-      <c r="F70" s="33">
-        <v>59</v>
+      <c r="E70" s="29">
+        <v>0</v>
+      </c>
+      <c r="F70" s="29">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="40" customFormat="1">
       <c r="A71" s="12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="39" t="s">
         <v>1200</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="D71" s="33">
-        <v>22</v>
+        <v>503</v>
+      </c>
+      <c r="D71" s="74">
+        <v>96</v>
       </c>
       <c r="E71" s="33">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F71" s="33">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="40" customFormat="1">
       <c r="A72" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D72" s="33">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E72" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" s="33">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="40" customFormat="1">
       <c r="A73" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="39" t="s">
         <v>1201</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>586</v>
+        <v>502</v>
       </c>
       <c r="D73" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" s="33">
         <v>3</v>
@@ -17144,119 +17257,119 @@
     </row>
     <row r="74" spans="1:6" s="40" customFormat="1">
       <c r="A74" s="12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="39" t="s">
         <v>1201</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>503</v>
+        <v>586</v>
       </c>
       <c r="D74" s="33">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E74" s="33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F74" s="33">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="40" customFormat="1">
       <c r="A75" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="39" t="s">
         <v>1201</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D75" s="33">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E75" s="33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F75" s="33">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="40" customFormat="1">
       <c r="A76" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="D76" s="41">
-        <v>6</v>
-      </c>
-      <c r="E76" s="41">
-        <v>2</v>
-      </c>
-      <c r="F76" s="41">
-        <v>4</v>
+        <v>1201</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="D76" s="33">
+        <v>10</v>
+      </c>
+      <c r="E76" s="33">
+        <v>3</v>
+      </c>
+      <c r="F76" s="33">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="40" customFormat="1">
       <c r="A77" s="12">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="39" t="s">
         <v>1202</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="D77" s="41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" s="41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F77" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="40" customFormat="1">
       <c r="A78" s="12">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>1202</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>1203</v>
+        <v>620</v>
       </c>
       <c r="D78" s="41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E78" s="41">
         <v>5</v>
       </c>
       <c r="F78" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="40" customFormat="1">
       <c r="A79" s="12">
-        <v>78</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>18</v>
+        <v>77</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>1202</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="D79" s="73">
-        <v>12</v>
+        <v>1203</v>
+      </c>
+      <c r="D79" s="41">
+        <v>5</v>
       </c>
       <c r="E79" s="41">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="F79" s="41">
         <v>0</v>
@@ -17264,79 +17377,79 @@
     </row>
     <row r="80" spans="1:6" s="40" customFormat="1">
       <c r="A80" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D80" s="73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E80" s="41">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="F80" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" s="40" customFormat="1">
       <c r="A81" s="12">
-        <v>80</v>
-      </c>
-      <c r="B81" s="39" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D81" s="33">
-        <v>1</v>
-      </c>
-      <c r="E81" s="12">
-        <v>1</v>
-      </c>
-      <c r="F81" s="39">
+        <v>79</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D81" s="73">
+        <v>0</v>
+      </c>
+      <c r="E81" s="41">
+        <v>6</v>
+      </c>
+      <c r="F81" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="12">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>1468</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D82" s="33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E82" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="39">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="12">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="39" t="s">
         <v>1468</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>829</v>
+        <v>413</v>
       </c>
       <c r="D83" s="33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E83" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F83" s="39">
         <v>5</v>
@@ -17344,413 +17457,413 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="12">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>1468</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>414</v>
+        <v>829</v>
       </c>
       <c r="D84" s="33">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E84" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F84" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="39" t="s">
         <v>1468</v>
       </c>
-      <c r="C85" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D85" s="41">
-        <v>16</v>
+      <c r="C85" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D85" s="33">
+        <v>2</v>
       </c>
       <c r="E85" s="12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F85" s="39">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="39" t="s">
         <v>1468</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="D86" s="41">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E86" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86" s="39">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D87" s="33">
-        <v>1</v>
+        <v>1468</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="D87" s="41">
+        <v>51</v>
       </c>
       <c r="E87" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F87" s="39">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="12">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>1469</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D88" s="74">
-        <v>28</v>
+        <v>412</v>
+      </c>
+      <c r="D88" s="33">
+        <v>1</v>
       </c>
       <c r="E88" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F88" s="39">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="12">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="39" t="s">
         <v>1469</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="D89" s="33">
-        <v>8</v>
+        <v>413</v>
+      </c>
+      <c r="D89" s="74">
+        <v>38</v>
       </c>
       <c r="E89" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F89" s="39">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="12">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>1469</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>1470</v>
+        <v>418</v>
       </c>
       <c r="D90" s="33">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E90" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F90" s="39">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="12">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="39" t="s">
         <v>1469</v>
       </c>
-      <c r="C91" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="D91" s="41">
-        <v>3</v>
+      <c r="C91" s="32" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D91" s="33">
+        <v>65</v>
       </c>
       <c r="E91" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F91" s="39">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="12">
-        <v>91</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D92" s="29">
-        <v>34</v>
-      </c>
-      <c r="E92" s="29">
-        <v>10</v>
-      </c>
-      <c r="F92" s="29">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" s="41">
+        <v>3</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="39">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D93" s="29">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E93" s="29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F93" s="29">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D94" s="29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E94" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F94" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>887</v>
+        <v>412</v>
       </c>
       <c r="D95" s="29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E95" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="29">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>413</v>
+        <v>887</v>
       </c>
       <c r="D96" s="29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E96" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F96" s="29">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="12">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D97" s="29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E97" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F97" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D98" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E98" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>837</v>
+        <v>415</v>
       </c>
       <c r="D99" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" s="29">
+        <v>1</v>
+      </c>
+      <c r="F99" s="29">
         <v>0</v>
-      </c>
-      <c r="F99" s="29">
-        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>416</v>
+        <v>837</v>
       </c>
       <c r="D100" s="29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E100" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F100" s="29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>1744</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1735</v>
+        <v>416</v>
       </c>
       <c r="D101" s="29">
+        <v>10</v>
+      </c>
+      <c r="E101" s="29">
         <v>3</v>
       </c>
-      <c r="E101" s="29">
-        <v>0</v>
-      </c>
       <c r="F101" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>418</v>
+        <v>1735</v>
       </c>
       <c r="D102" s="29">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E102" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F102" s="29">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D103" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E103" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F103" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D104" s="29">
         <v>0</v>
@@ -17764,93 +17877,93 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="D105" s="75">
-        <v>64</v>
+        <v>412</v>
+      </c>
+      <c r="D105" s="29">
+        <v>0</v>
       </c>
       <c r="E105" s="29">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F105" s="29">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>413</v>
+        <v>887</v>
       </c>
       <c r="D106" s="75">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E106" s="29">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F106" s="29">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D107" s="75">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E107" s="29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F107" s="29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D108" s="75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E108" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F108" s="29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>837</v>
+        <v>415</v>
       </c>
       <c r="D109" s="75">
         <v>0</v>
@@ -17864,146 +17977,166 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>416</v>
+        <v>837</v>
       </c>
       <c r="D110" s="75">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E110" s="29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F110" s="29">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="12">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="12" t="s">
         <v>1745</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D111" s="29">
-        <v>1</v>
+        <v>416</v>
+      </c>
+      <c r="D111" s="75">
+        <v>60</v>
       </c>
       <c r="E111" s="29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F111" s="29">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>1879</v>
+        <v>1745</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>418</v>
+        <v>1735</v>
       </c>
       <c r="D112" s="29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E112" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" s="29">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>1879</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D113" s="29">
+        <v>14</v>
+      </c>
+      <c r="E113" s="29">
         <v>2</v>
       </c>
-      <c r="E113" s="29">
-        <v>1</v>
-      </c>
       <c r="F113" s="29">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="12">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>1879</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D114" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="12">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>1879</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>887</v>
+        <v>412</v>
       </c>
       <c r="D115" s="29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E115" s="29">
         <v>0</v>
       </c>
       <c r="F115" s="29">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="12">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>1879</v>
       </c>
       <c r="C116" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="D116" s="29">
+        <v>16</v>
+      </c>
+      <c r="E116" s="29">
+        <v>0</v>
+      </c>
+      <c r="F116" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="12">
+        <v>115</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D117" s="29">
         <v>15</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E117" s="29">
         <v>4</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F117" s="29">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F116"/>
+  <autoFilter ref="A1:F117"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18012,9 +18145,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1418"/>
+  <dimension ref="A1:J1425"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -60622,7 +60755,7 @@
         <v>244</v>
       </c>
       <c r="E1403" s="62" t="str">
-        <f t="shared" ref="E1403:E1418" si="43">B1403&amp;"/"&amp;D1403</f>
+        <f t="shared" ref="E1403:E1425" si="43">B1403&amp;"/"&amp;D1403</f>
         <v>B21/K56</v>
       </c>
       <c r="F1403" s="51" t="s">
@@ -61104,14 +61237,231 @@
       </c>
       <c r="J1418" s="52"/>
     </row>
+    <row r="1419" spans="1:10">
+      <c r="A1419" s="50">
+        <v>1420</v>
+      </c>
+      <c r="B1419" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1419" s="50" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1419" s="50" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1419" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K14</v>
+      </c>
+      <c r="F1419" s="50" t="s">
+        <v>3475</v>
+      </c>
+      <c r="G1419" s="50" t="s">
+        <v>3476</v>
+      </c>
+      <c r="H1419" s="63">
+        <v>2</v>
+      </c>
+      <c r="I1419" s="50" t="str">
+        <f>IF(G1419="无","主要实例","次要实例")</f>
+        <v>主要实例</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10">
+      <c r="A1420" s="50">
+        <v>1421</v>
+      </c>
+      <c r="B1420" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1420" s="50" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1420" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1420" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K15</v>
+      </c>
+      <c r="F1420" s="50" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G1420" s="50" t="s">
+        <v>3476</v>
+      </c>
+      <c r="H1420" s="63">
+        <v>4</v>
+      </c>
+      <c r="I1420" s="50" t="str">
+        <f t="shared" ref="I1420:I1425" si="44">IF(G1420="无","主要实例","次要实例")</f>
+        <v>主要实例</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10">
+      <c r="A1421" s="50">
+        <v>1422</v>
+      </c>
+      <c r="B1421" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1421" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1421" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1421" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K15-1</v>
+      </c>
+      <c r="F1421" s="50" t="s">
+        <v>3478</v>
+      </c>
+      <c r="G1421" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1421" s="63" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I1421" s="50" t="str">
+        <f t="shared" si="44"/>
+        <v>次要实例</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10">
+      <c r="A1422" s="50">
+        <v>1423</v>
+      </c>
+      <c r="B1422" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1422" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1422" s="50" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E1422" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K1-4</v>
+      </c>
+      <c r="F1422" s="50" t="s">
+        <v>3480</v>
+      </c>
+      <c r="G1422" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1422" s="63" t="s">
+        <v>3481</v>
+      </c>
+      <c r="I1422" s="50" t="str">
+        <f t="shared" si="44"/>
+        <v>次要实例</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10">
+      <c r="A1423" s="50">
+        <v>1424</v>
+      </c>
+      <c r="B1423" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1423" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1423" s="50" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E1423" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K1-5</v>
+      </c>
+      <c r="F1423" s="50" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G1423" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1423" s="63" t="s">
+        <v>3481</v>
+      </c>
+      <c r="I1423" s="50" t="str">
+        <f t="shared" si="44"/>
+        <v>次要实例</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10">
+      <c r="A1424" s="50">
+        <v>1425</v>
+      </c>
+      <c r="B1424" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1424" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1424" s="50" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E1424" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K1-2-1</v>
+      </c>
+      <c r="F1424" s="50" t="s">
+        <v>3483</v>
+      </c>
+      <c r="G1424" s="50" t="s">
+        <v>3484</v>
+      </c>
+      <c r="H1424" s="63" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I1424" s="50" t="str">
+        <f t="shared" si="44"/>
+        <v>次要实例</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9">
+      <c r="A1425" s="50">
+        <v>1426</v>
+      </c>
+      <c r="B1425" s="63" t="s">
+        <v>779</v>
+      </c>
+      <c r="C1425" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1425" s="50" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E1425" s="63" t="str">
+        <f t="shared" si="43"/>
+        <v>B07/K13-1</v>
+      </c>
+      <c r="F1425" s="50" t="s">
+        <v>3486</v>
+      </c>
+      <c r="G1425" s="50" t="s">
+        <v>3487</v>
+      </c>
+      <c r="H1425" s="63" t="s">
+        <v>3488</v>
+      </c>
+      <c r="I1425" s="50" t="str">
+        <f t="shared" si="44"/>
+        <v>次要实例</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1418"/>
+  <autoFilter ref="A1:I1425"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F1419:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="F1 F1426:F1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F459">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -83515,7 +83865,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H1 H593:H1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M564:M593 M245:M247 M152:M218 M87:M89 M118:M119 M48 M53 M56 M553:M560 M562 M492:M516 M305:M325 M550 M546 M542 M538 M534 M528:M530 M524 M340:M346 M426:M427 M405 M364">
